--- a/BOOST/docs/BOM/ProMicro_BOOST.xlsx
+++ b/BOOST/docs/BOM/ProMicro_BOOST.xlsx
@@ -367,7 +367,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Sep  4 18:25:00 2020</t>
+    <t>Sat Sep  5 22:01:55 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
